--- a/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.27623447111189</v>
+        <v>0.2763016935307254</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3816979271779439</v>
+        <v>0.3813950397786867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2911293985357546</v>
+        <v>0.2860256271588489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3058512523994866</v>
+        <v>0.3054509896979258</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2013332223417611</v>
+        <v>0.1996063321690618</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2388930958131594</v>
+        <v>0.2380824141347699</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1844183184189215</v>
+        <v>0.1836250012286308</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2091389299899468</v>
+        <v>0.2088674237338182</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.240605444772045</v>
+        <v>0.2411253773313682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3053244290519992</v>
+        <v>0.3079161392673562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2370187750938895</v>
+        <v>0.2394515436767437</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2561727860623922</v>
+        <v>0.2585969123841034</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.34396602207053</v>
+        <v>0.3447888971489478</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4550603895391053</v>
+        <v>0.4556620207101214</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3769949777822988</v>
+        <v>0.3796356748623188</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3836798382685412</v>
+        <v>0.3796053457391283</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2551790392168396</v>
+        <v>0.254382166086604</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2918640204712563</v>
+        <v>0.2953936563621271</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2541581933387737</v>
+        <v>0.2523114200608801</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2539296593078062</v>
+        <v>0.2533530017216626</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2834591066297031</v>
+        <v>0.284124499202917</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3496436893760406</v>
+        <v>0.3496653599608023</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2930869209779246</v>
+        <v>0.2940729391095026</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.296445438596832</v>
+        <v>0.2996799244694155</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.162273622801732</v>
+        <v>0.162934906308611</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1878816876776025</v>
+        <v>0.190329569525274</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1464344560549193</v>
+        <v>0.1452833326165641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1298995061608517</v>
+        <v>0.1289039744996284</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09938657312061509</v>
+        <v>0.0985726423905183</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1212872582432948</v>
+        <v>0.12000320128224</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09902207527722411</v>
+        <v>0.09917564211303434</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08520620804032338</v>
+        <v>0.08455021296204571</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1356584582640313</v>
+        <v>0.135480767381274</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1606714596447392</v>
+        <v>0.1612296481783697</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1261976976502021</v>
+        <v>0.126270379964725</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1099705559181985</v>
+        <v>0.111006817524307</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2035216753313443</v>
+        <v>0.2039922285989663</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2295237296451309</v>
+        <v>0.2309906507913359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1831197451641698</v>
+        <v>0.1799324357094022</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1632458714962993</v>
+        <v>0.1630013878224946</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1340328527951201</v>
+        <v>0.1342236338055952</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1569948151861069</v>
+        <v>0.1560686549430618</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1297850610108932</v>
+        <v>0.1300703762832817</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1070735383983967</v>
+        <v>0.1074872584914236</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1621668114736932</v>
+        <v>0.1629207302922737</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1889177724575629</v>
+        <v>0.1875869179018033</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1502507028264867</v>
+        <v>0.151188974782086</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.130462454457633</v>
+        <v>0.1313537403618875</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.08685133141669714</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08197254761826678</v>
+        <v>0.08197254761826676</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.06189308296191486</v>
@@ -957,7 +957,7 @@
         <v>0.07773446639171318</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04797816995909388</v>
+        <v>0.04797816995909387</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07302784745665411</v>
@@ -969,7 +969,7 @@
         <v>0.08225183992199997</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06470635966133104</v>
+        <v>0.06470635966133102</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0572122840390567</v>
+        <v>0.05931503322549066</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07337070251510025</v>
+        <v>0.07241748033770891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06379745986128453</v>
+        <v>0.06347544360236343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06327822894073767</v>
+        <v>0.06098082336253372</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04081478098088262</v>
+        <v>0.04139713933432097</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05142192799094743</v>
+        <v>0.05282858864819617</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05583072289744456</v>
+        <v>0.05560091334552531</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03533137288840982</v>
+        <v>0.03510975619242563</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05569684078243376</v>
+        <v>0.05583267905017355</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07015102971708823</v>
+        <v>0.072041824720075</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06568507879357251</v>
+        <v>0.06653851015996623</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05320440010849464</v>
+        <v>0.05305577996525288</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1151543243351937</v>
+        <v>0.1149924478046993</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1404218780999622</v>
+        <v>0.1339957099601626</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1199309323285481</v>
+        <v>0.1189192460576592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1115479673876611</v>
+        <v>0.1062561054966395</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.089614636505412</v>
+        <v>0.08995452173018863</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1087117491058877</v>
+        <v>0.1085874264887943</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1041631742861828</v>
+        <v>0.1064400311096175</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06326589658843729</v>
+        <v>0.06319170313644233</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09250312980057998</v>
+        <v>0.09218566477445153</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1121242986966557</v>
+        <v>0.1134788823696215</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1012847363691172</v>
+        <v>0.1010971513519978</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08052639310247209</v>
+        <v>0.07916207019191622</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1849912660879745</v>
+        <v>0.181282087866105</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2302356823909475</v>
+        <v>0.2307678455474773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1629485487970634</v>
+        <v>0.1633409947593237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1508866794168569</v>
+        <v>0.1501826134059186</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1337047962928535</v>
+        <v>0.1331661033531513</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1608531269752845</v>
+        <v>0.1620353854606057</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1178283911927328</v>
+        <v>0.1163629706735005</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1070975022630118</v>
+        <v>0.1067775998738016</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1610781420876225</v>
+        <v>0.1611443401465999</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1998538212376848</v>
+        <v>0.199157826659298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1435385802501735</v>
+        <v>0.1437234452356187</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1306390515954403</v>
+        <v>0.131122897529231</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2159149883741565</v>
+        <v>0.2153297763123301</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2654465314499383</v>
+        <v>0.2630700964605357</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1936661293093173</v>
+        <v>0.1932853589455685</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1761008706084336</v>
+        <v>0.1770891749877843</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.159560476134776</v>
+        <v>0.1613402266705299</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1902656474685264</v>
+        <v>0.1897404461966523</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1456503052402556</v>
+        <v>0.1433051695151997</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1252125005810956</v>
+        <v>0.1242537180101572</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1821513555475823</v>
+        <v>0.1818666092855431</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.221181836984425</v>
+        <v>0.2208926602360097</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1630536648317286</v>
+        <v>0.1634792713148576</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.147021691529012</v>
+        <v>0.1466860827588342</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>190426</v>
+        <v>190473</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>297409</v>
+        <v>297173</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>133168</v>
+        <v>130834</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>163961</v>
+        <v>163746</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>193070</v>
+        <v>191414</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>269521</v>
+        <v>268606</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>117820</v>
+        <v>117313</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>164089</v>
+        <v>163876</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>396596</v>
+        <v>397453</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>582369</v>
+        <v>587313</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>259842</v>
+        <v>262509</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>338320</v>
+        <v>341522</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>237118</v>
+        <v>237685</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>354571</v>
+        <v>355040</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>172445</v>
+        <v>173653</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>205683</v>
+        <v>203499</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>244706</v>
+        <v>243942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>329283</v>
+        <v>333265</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>162375</v>
+        <v>161195</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>199231</v>
+        <v>198779</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>467232</v>
+        <v>468329</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>666903</v>
+        <v>666944</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>321309</v>
+        <v>322390</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>391507</v>
+        <v>395779</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>213300</v>
+        <v>214169</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>317197</v>
+        <v>321329</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>248441</v>
+        <v>246488</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>278826</v>
+        <v>276690</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>136477</v>
+        <v>135359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>192751</v>
+        <v>190711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>169092</v>
+        <v>169355</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>179836</v>
+        <v>178451</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>364602</v>
+        <v>364124</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>526599</v>
+        <v>528429</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>429606</v>
+        <v>429853</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>468152</v>
+        <v>472564</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>267519</v>
+        <v>268137</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>387500</v>
+        <v>389976</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>310682</v>
+        <v>305274</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>350404</v>
+        <v>349879</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>184053</v>
+        <v>184315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>249498</v>
+        <v>248026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>221624</v>
+        <v>222111</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>225989</v>
+        <v>226862</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>435846</v>
+        <v>437873</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>619176</v>
+        <v>614814</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>511488</v>
+        <v>514682</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>555388</v>
+        <v>559182</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25799</v>
+        <v>26747</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32440</v>
+        <v>32018</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31850</v>
+        <v>31690</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>44411</v>
+        <v>42799</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16684</v>
+        <v>16922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21789</v>
+        <v>22385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28380</v>
+        <v>28263</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25595</v>
+        <v>25434</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>47883</v>
+        <v>48000</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>60741</v>
+        <v>62378</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>66182</v>
+        <v>67042</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>75883</v>
+        <v>75671</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>51926</v>
+        <v>51853</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>62085</v>
+        <v>59244</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>59875</v>
+        <v>59370</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>78289</v>
+        <v>74575</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36633</v>
+        <v>36772</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>46064</v>
+        <v>46011</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52948</v>
+        <v>54106</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45831</v>
+        <v>45777</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>79526</v>
+        <v>79253</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>97084</v>
+        <v>98256</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>102051</v>
+        <v>101862</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>114851</v>
+        <v>112905</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>454106</v>
+        <v>445001</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>669891</v>
+        <v>671439</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>432346</v>
+        <v>433388</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>510661</v>
+        <v>508278</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>366476</v>
+        <v>365000</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>505263</v>
+        <v>508976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>336379</v>
+        <v>332195</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>387650</v>
+        <v>386492</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>836910</v>
+        <v>837254</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1209261</v>
+        <v>1205050</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>790623</v>
+        <v>791641</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>914995</v>
+        <v>918384</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>530016</v>
+        <v>528579</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>772340</v>
+        <v>765425</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>513848</v>
+        <v>512838</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>595996</v>
+        <v>599341</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>437345</v>
+        <v>442223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>597651</v>
+        <v>596002</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>415805</v>
+        <v>409110</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>453219</v>
+        <v>449748</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>946400</v>
+        <v>944921</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1338311</v>
+        <v>1336561</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>898114</v>
+        <v>900458</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1029739</v>
+        <v>1027389</v>
       </c>
     </row>
     <row r="20">
